--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H2">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N2">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O2">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P2">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q2">
-        <v>0.7825244840706667</v>
+        <v>0.1442780056616667</v>
       </c>
       <c r="R2">
-        <v>7.042720356636</v>
+        <v>1.298502050955</v>
       </c>
       <c r="S2">
-        <v>0.003291604315016715</v>
+        <v>0.0006368560700501958</v>
       </c>
       <c r="T2">
-        <v>0.003291604315016715</v>
+        <v>0.0006368560700501956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H3">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>35.15979</v>
       </c>
       <c r="O3">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P3">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q3">
-        <v>120.8572581386633</v>
+        <v>103.62137433731</v>
       </c>
       <c r="R3">
-        <v>1087.71532324797</v>
+        <v>932.5923690357901</v>
       </c>
       <c r="S3">
-        <v>0.5083729397461105</v>
+        <v>0.4573940492940491</v>
       </c>
       <c r="T3">
-        <v>0.5083729397461105</v>
+        <v>0.4573940492940489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H4">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J4">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N4">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O4">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P4">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q4">
-        <v>28.92654972751923</v>
+        <v>30.282395816614</v>
       </c>
       <c r="R4">
-        <v>260.3389475476731</v>
+        <v>272.541562349526</v>
       </c>
       <c r="S4">
-        <v>0.1216763920361237</v>
+        <v>0.1336692138419076</v>
       </c>
       <c r="T4">
-        <v>0.1216763920361237</v>
+        <v>0.1336692138419076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N5">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O5">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P5">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q5">
-        <v>0.3113852891919999</v>
+        <v>0.06696126909666666</v>
       </c>
       <c r="R5">
-        <v>2.802467602728</v>
+        <v>0.6026514218699999</v>
       </c>
       <c r="S5">
-        <v>0.001309808424402673</v>
+        <v>0.0002955730534734377</v>
       </c>
       <c r="T5">
-        <v>0.001309808424402673</v>
+        <v>0.0002955730534734376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J6">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>35.15979</v>
       </c>
       <c r="O6">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P6">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q6">
         <v>48.09200611934</v>
@@ -818,10 +818,10 @@
         <v>432.8280550740599</v>
       </c>
       <c r="S6">
-        <v>0.2022938043251492</v>
+        <v>0.2122824326378274</v>
       </c>
       <c r="T6">
-        <v>0.2022938043251492</v>
+        <v>0.2122824326378273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J7">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N7">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O7">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P7">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q7">
-        <v>11.51056897973933</v>
+        <v>14.054447494396</v>
       </c>
       <c r="R7">
-        <v>103.595120817654</v>
+        <v>126.490027449564</v>
       </c>
       <c r="S7">
-        <v>0.04841795917351259</v>
+        <v>0.06203759302715371</v>
       </c>
       <c r="T7">
-        <v>0.04841795917351258</v>
+        <v>0.0620375930271537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H8">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J8">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.07588399999999999</v>
+        <v>0.01631833333333333</v>
       </c>
       <c r="N8">
-        <v>0.227652</v>
+        <v>0.048955</v>
       </c>
       <c r="O8">
-        <v>0.005197207581907008</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="P8">
-        <v>0.005197207581907009</v>
+        <v>0.001076315602073535</v>
       </c>
       <c r="Q8">
-        <v>0.141640369592</v>
+        <v>0.03259708926888889</v>
       </c>
       <c r="R8">
-        <v>1.274763326328</v>
+        <v>0.29337380342</v>
       </c>
       <c r="S8">
-        <v>0.0005957948424876207</v>
+        <v>0.0001438864785499016</v>
       </c>
       <c r="T8">
-        <v>0.0005957948424876207</v>
+        <v>0.0001438864785499016</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H9">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J9">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>35.15979</v>
       </c>
       <c r="O9">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262294</v>
       </c>
       <c r="P9">
-        <v>0.8026844796718599</v>
+        <v>0.7730166590262293</v>
       </c>
       <c r="Q9">
-        <v>21.87569470234</v>
+        <v>23.41143526310667</v>
       </c>
       <c r="R9">
-        <v>196.88125232106</v>
+        <v>210.70291736796</v>
       </c>
       <c r="S9">
-        <v>0.09201773560060013</v>
+        <v>0.1033401770943529</v>
       </c>
       <c r="T9">
-        <v>0.09201773560060013</v>
+        <v>0.1033401770943529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H10">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J10">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.805103666666667</v>
+        <v>3.425042</v>
       </c>
       <c r="N10">
-        <v>8.415311000000001</v>
+        <v>10.275126</v>
       </c>
       <c r="O10">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="P10">
-        <v>0.1921183127462331</v>
+        <v>0.2259070253716972</v>
       </c>
       <c r="Q10">
-        <v>5.235832587772667</v>
+        <v>6.841777131469334</v>
       </c>
       <c r="R10">
-        <v>47.122493289954</v>
+        <v>61.575994183224</v>
       </c>
       <c r="S10">
-        <v>0.02202396153659683</v>
+        <v>0.03020021850263582</v>
       </c>
       <c r="T10">
-        <v>0.02202396153659683</v>
+        <v>0.03020021850263582</v>
       </c>
     </row>
   </sheetData>
